--- a/scripts/all_regex_terms.xlsx
+++ b/scripts/all_regex_terms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alternative Unit of Measure,  Unit of Measure</t>
+          <t>Alternative Unit of Measure,  Alternative UOM,  Alternate Unit,  Alternate Unit of Measure,  Alternate UOM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>.*(Alternative|ALT)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure)|.*(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*</t>
+          <t>.*(Alternative|ALT)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure)|.*(Alternative|ALT)[^A-Za-z0-9]?(UOM)|.*(Alternate|ALT)[^A-Za-z0-9]?(Unit)|.*(Alternate|ALT)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure)|.*(Alternate|ALT)[^A-Za-z0-9]?(UOM).*</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Base Unit of Measure</t>
+          <t>Base Unit of Measure,  Base UOM,  BUOM,  Unit of Measure,  UOM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>.*(Base)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*</t>
+          <t>.*(Base)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure)|.*(Base)[^A-Za-z0-9]?(UOM)|.*(BUOM)|.*(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure)|.*(UOM).*</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bill of Materials,  Bill of Material</t>
+          <t>Bill of Materials,  Bill of Material,  BOM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Materials|MAT)|.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Material|MAT).*</t>
+          <t>.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Materials|MAT)|.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Material|MAT)|.*(BOM).*</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Issue Storage Location,  Issue Storage LOC</t>
+          <t>Issue Storage Location,  Issue SLOC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>.*(Issue)[^A-Za-z0-9]?(Storage)[^A-Za-z0-9]?(Location|LOC)|.*(Issue)[^A-Za-z0-9]?(Storage)[^A-Za-z0-9]?(LOC).*</t>
+          <t>.*(Issue)[^A-Za-z0-9]?(Storage)[^A-Za-z0-9]?(Location|LOC)|.*(Issue)[^A-Za-z0-9]?(SLOC).*</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Issuing Plant,  Issuing Site</t>
+          <t>Issuing Plant,  Issuing Site,  Issuing Store,  Issuing Distribution Center,  Issuing DC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>.*(Issuing)[^A-Za-z0-9]?(Plant)|.*(Issuing)[^A-Za-z0-9]?(Site).*</t>
+          <t>.*(Issuing)[^A-Za-z0-9]?(Plant)|.*(Issuing)[^A-Za-z0-9]?(Site)|.*(Issuing)[^A-Za-z0-9]?(Store)|.*(Issuing)[^A-Za-z0-9]?(Distribution|DIST)[^A-Za-z0-9]?(Center|CTR)|.*(Issuing)[^A-Za-z0-9]?(DC).*</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Material Description,  Short Text,  Short Description</t>
+          <t>Material Description,  Material Short Text,  Material Short Description,  Material Description Short Text</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>.*(Material|MAT)[^A-Za-z0-9]?(Description|DESC|DESCR)|.*(Short)[^A-Za-z0-9]?(Text|TXT)|.*(Short)[^A-Za-z0-9]?(Description|DESC|DESCR).*</t>
+          <t>.*(Material|MAT)[^A-Za-z0-9]?(Description|DESC|DESCR)|.*(Material|MAT)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Text|TXT)|.*(Material|MAT)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Description|DESC|DESCR)|.*(Material|MAT)[^A-Za-z0-9]?(Description|DESC|DESCR)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Text|TXT).*</t>
         </is>
       </c>
     </row>
@@ -611,197 +611,180 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Material Group,  Product Hierarchy,  Merchandise Hierarchy</t>
+          <t>Material Group,  Product Hierarchy,  Merchandise Hierarchy,  Merchandise Category</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>.*(Material|MAT)[^A-Za-z0-9]?(Group|GRP)|.*(Product)[^A-Za-z0-9]?(Hierarchy|HIER)|.*(Merchandise|MERCH)[^A-Za-z0-9]?(Hierarchy|HIER).*</t>
+          <t>.*(Material|MAT)[^A-Za-z0-9]?(Group|GRP)|.*(Product)[^A-Za-z0-9]?(Hierarchy|HIER)|.*(Merchandise|MERCH)[^A-Za-z0-9]?(Hierarchy|HIER)|.*(Merchandise|MERCH)[^A-Za-z0-9]?(Category|CAT).*</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Material Group Packaging Materials</t>
+          <t>Material Number</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Material Group Packaging Materials</t>
+          <t>Material Number,  Material,  SKU,  Article Number,  Article,  Part Number,  Part,  Item Number,  Item</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>.*(Material|MAT)[^A-Za-z0-9]?(Group|GRP)[^A-Za-z0-9]?(Packaging|PACK|PKG)[^A-Za-z0-9]?(Materials|MAT).*</t>
+          <t>.*(Material|MAT)[^A-Za-z0-9]?(Number|NO|#)|.*(Material|MAT)|.*(SKU)|.*(Article)[^A-Za-z0-9]?(Number|NO|#)|.*(Article)|.*(Part)[^A-Za-z0-9]?(Number|NO|#)|.*(Part)|.*(Item)[^A-Za-z0-9]?(Number|NO|#)|.*(Item).*</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Material Number</t>
+          <t>Material Type</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Material Number,  SKU,  Article Number,  Article</t>
+          <t>Material Type</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>.*(Material|MAT)[^A-Za-z0-9]?(Number|NO|#)|.*(SKU)|.*(Article)[^A-Za-z0-9]?(Number|NO|#)|.*(Article).*</t>
+          <t>.*(Material|MAT)[^A-Za-z0-9]?(Type).*</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Material Type</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Material Type</t>
+          <t>Plant,  Site,  Store,  Distribution Center,  Retail Store,  Factory,  Manufacturing Facility</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>.*(Material|MAT)[^A-Za-z0-9]?(Type).*</t>
+          <t>.*(Plant)|.*(Site)|.*(Store)|.*(Distribution|DIST)[^A-Za-z0-9]?(Center|CTR)|.*(Retail|RET)[^A-Za-z0-9]?(Store)|.*(Factory)|.*(Manufacturing|MANU|MFG)[^A-Za-z0-9]?(Facility).*</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Profit center</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Plant,  Site,  Store,  Distribution Center,  Retail Store,  Factory,  Manufacturing Facility,  DC</t>
+          <t>Profit Center</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>.*(Plant)|.*(Site)|.*(Store)|.*(Distribution|DIST)[^A-Za-z0-9]?(Center|CTR)|.*(Retail|RET)[^A-Za-z0-9]?(Store)|.*(Factory)|.*(Manufacturing|MANU|MFG)[^A-Za-z0-9]?(Facility)|.*(DC).*</t>
+          <t>.*(Profit)[^A-Za-z0-9]?(Center|CTR).*</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Profit center</t>
+          <t>Sales Organization</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Profit Center</t>
+          <t>Sales Organization</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>.*(Profit)[^A-Za-z0-9]?(Center|CTR).*</t>
+          <t>.*(Sales)[^A-Za-z0-9]?(Organization|ORG).*</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sales Organization</t>
+          <t>Standard Price</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sales Organization</t>
+          <t>Standard Price,  Standard Pricing,  Material Standard Price,  Material Standard Pricing,  Price</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>.*(Sales)[^A-Za-z0-9]?(Organization|ORG).*</t>
+          <t>.*(Standard|STD)[^A-Za-z0-9]?(Price)|.*(Standard|STD)[^A-Za-z0-9]?(Pricing)|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Price)|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Pricing)|.*(Price).*</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Standard Price</t>
+          <t>Storage Location</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Standard Price,  Standard Pricing,  Material Standard Price,  Material Standard Pricing</t>
+          <t>Storage Location,  SLOC,  Warehouse</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>.*(Standard|STD)[^A-Za-z0-9]?(Price)|.*(Standard|STD)[^A-Za-z0-9]?(Pricing)|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Price)|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Pricing).*</t>
+          <t>.*(Storage)[^A-Za-z0-9]?(Location|LOC)|.*(SLOC)|.*(Warehouse|WH).*</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Storage Location</t>
+          <t>Total Stock</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Storage Location,  Warehouse,  Storage LOC,  SLOC</t>
+          <t>Total Stock,  Total Inventory,  Stock,  Inventory</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>.*(Storage)[^A-Za-z0-9]?(Location|LOC)|.*(Warehouse)|.*(Storage)[^A-Za-z0-9]?(LOC)|.*(SLOC).*</t>
+          <t>.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Stock|STK)|.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Inventory|INV)|.*(Stock|STK)|.*(Inventory|INV).*</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Total Stock</t>
+          <t>Valuation Class</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Total Stock,  Total Inventory</t>
+          <t>Valuation Class</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Stock|STK)|.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Inventory|INV).*</t>
+          <t>.*(Valuation|VAL)[^A-Za-z0-9]?(Class).*</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Valuation Class</t>
+          <t>Volume</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Valuation Class</t>
+          <t>Volume</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
-        <is>
-          <t>.*(Valuation|VAL)[^A-Za-z0-9]?(Class).*</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>.*(Volume|VOL).*</t>
         </is>

--- a/scripts/all_regex_terms.xlsx
+++ b/scripts/all_regex_terms.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>.*(Alternative|ALT)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure)|.*(Alternative|ALT)[^A-Za-z0-9]?(UOM)|.*(Alternate|ALT)[^A-Za-z0-9]?(Unit)|.*(Alternate|ALT)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure)|.*(Alternate|ALT)[^A-Za-z0-9]?(UOM).*</t>
+          <t>.*(Alternative|ALT)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(Alternative|ALT)[^A-Za-z0-9]?(UOM).*|.*(Alternate|ALT)[^A-Za-z0-9]?(Unit).*|.*(Alternate|ALT)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(Alternate|ALT)[^A-Za-z0-9]?(UOM).*.*</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>.*(Base)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure)|.*(Base)[^A-Za-z0-9]?(UOM)|.*(BUOM)|.*(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure)|.*(UOM).*</t>
+          <t>.*(Base)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(Base)[^A-Za-z0-9]?(UOM).*|.*(BUOM).*|.*(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(UOM).*.*</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Materials|MAT)|.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Material|MAT)|.*(BOM).*</t>
+          <t>.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Materials|MAT).*|.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Material|MAT).*|.*(BOM).*.*</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>.*(Division|DIV).*</t>
+          <t>.*(Division|DIV).*.*</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>.*(Industry)[^A-Za-z0-9]?(Sector|SECT)|.*(Sector|SECT).*</t>
+          <t>.*(Industry)[^A-Za-z0-9]?(Sector|SECT).*|.*(Sector|SECT).*.*</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>.*(International|INTL|INT'L)[^A-Za-z0-9]?(Article)[^A-Za-z0-9]?(Number|NO|#)|.*(International|INTL|INT'L)[^A-Za-z0-9]?(Material|MAT)[^A-Za-z0-9]?(Number|NO|#)|.*(GTIN)|.*(EAN)|.*(UPC).*</t>
+          <t>.*(International|INTL|INT'L)[^A-Za-z0-9]?(Article)[^A-Za-z0-9]?(Number|NO|#).*|.*(International|INTL|INT'L)[^A-Za-z0-9]?(Material|MAT)[^A-Za-z0-9]?(Number|NO|#).*|.*(GTIN).*|.*(EAN).*|.*(UPC).*.*</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>.*(Issue)[^A-Za-z0-9]?(Storage)[^A-Za-z0-9]?(Location|LOC)|.*(Issue)[^A-Za-z0-9]?(SLOC).*</t>
+          <t>.*(Issue)[^A-Za-z0-9]?(Storage)[^A-Za-z0-9]?(Location|LOC).*|.*(Issue)[^A-Za-z0-9]?(SLOC).*.*</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>.*(Issuing)[^A-Za-z0-9]?(Plant)|.*(Issuing)[^A-Za-z0-9]?(Site)|.*(Issuing)[^A-Za-z0-9]?(Store)|.*(Issuing)[^A-Za-z0-9]?(Distribution|DIST)[^A-Za-z0-9]?(Center|CTR)|.*(Issuing)[^A-Za-z0-9]?(DC).*</t>
+          <t>.*(Issuing)[^A-Za-z0-9]?(Plant).*|.*(Issuing)[^A-Za-z0-9]?(Site).*|.*(Issuing)[^A-Za-z0-9]?(Store).*|.*(Issuing)[^A-Za-z0-9]?(Distribution|DIST)[^A-Za-z0-9]?(Center|CTR).*|.*(Issuing)[^A-Za-z0-9]?(DC).*.*</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>.*(Material|MAT)[^A-Za-z0-9]?(Description|DESC|DESCR)|.*(Material|MAT)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Text|TXT)|.*(Material|MAT)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Description|DESC|DESCR)|.*(Material|MAT)[^A-Za-z0-9]?(Description|DESC|DESCR)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Text|TXT).*</t>
+          <t>.*(Material|MAT)[^A-Za-z0-9]?(Description|DESC|DESCR).*|.*(Material|MAT)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Text|TXT).*|.*(Material|MAT)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Description|DESC|DESCR).*|.*(Material|MAT)[^A-Za-z0-9]?(Description|DESC|DESCR)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Text|TXT).*.*</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>.*(Material|MAT)[^A-Za-z0-9]?(Group|GRP)|.*(Product)[^A-Za-z0-9]?(Hierarchy|HIER)|.*(Merchandise|MERCH)[^A-Za-z0-9]?(Hierarchy|HIER)|.*(Merchandise|MERCH)[^A-Za-z0-9]?(Category|CAT).*</t>
+          <t>.*(Material|MAT)[^A-Za-z0-9]?(Group|GRP).*|.*(Product)[^A-Za-z0-9]?(Hierarchy|HIER).*|.*(Merchandise|MERCH)[^A-Za-z0-9]?(Hierarchy|HIER).*|.*(Merchandise|MERCH)[^A-Za-z0-9]?(Category|CAT).*.*</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>.*(Material|MAT)[^A-Za-z0-9]?(Number|NO|#)|.*(Material|MAT)|.*(SKU)|.*(Article)[^A-Za-z0-9]?(Number|NO|#)|.*(Article)|.*(Part)[^A-Za-z0-9]?(Number|NO|#)|.*(Part)|.*(Item)[^A-Za-z0-9]?(Number|NO|#)|.*(Item).*</t>
+          <t>.*(Material|MAT)[^A-Za-z0-9]?(Number|NO|#).*|.*(Material|MAT).*|.*(SKU).*|.*(Article)[^A-Za-z0-9]?(Number|NO|#).*|.*(Article).*|.*(Part)[^A-Za-z0-9]?(Number|NO|#).*|.*(Part).*|.*(Item)[^A-Za-z0-9]?(Number|NO|#).*|.*(Item).*.*</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>.*(Material|MAT)[^A-Za-z0-9]?(Type).*</t>
+          <t>.*(Material|MAT)[^A-Za-z0-9]?(Type).*.*</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>.*(Plant)|.*(Site)|.*(Store)|.*(Distribution|DIST)[^A-Za-z0-9]?(Center|CTR)|.*(Retail|RET)[^A-Za-z0-9]?(Store)|.*(Factory)|.*(Manufacturing|MANU|MFG)[^A-Za-z0-9]?(Facility).*</t>
+          <t>.*(Plant).*|.*(Site).*|.*(Store).*|.*(Distribution|DIST)[^A-Za-z0-9]?(Center|CTR).*|.*(Retail|RET)[^A-Za-z0-9]?(Store).*|.*(Factory).*|.*(Manufacturing|MANU|MFG)[^A-Za-z0-9]?(Facility).*.*</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>.*(Profit)[^A-Za-z0-9]?(Center|CTR).*</t>
+          <t>.*(Profit)[^A-Za-z0-9]?(Center|CTR).*.*</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>.*(Sales)[^A-Za-z0-9]?(Organization|ORG).*</t>
+          <t>.*(Sales)[^A-Za-z0-9]?(Organization|ORG).*.*</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>.*(Standard|STD)[^A-Za-z0-9]?(Price)|.*(Standard|STD)[^A-Za-z0-9]?(Pricing)|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Price)|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Pricing)|.*(Price).*</t>
+          <t>.*(Standard|STD)[^A-Za-z0-9]?(Price).*|.*(Standard|STD)[^A-Za-z0-9]?(Pricing).*|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Price).*|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Pricing).*|.*(Price).*.*</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>.*(Storage)[^A-Za-z0-9]?(Location|LOC)|.*(SLOC)|.*(Warehouse|WH).*</t>
+          <t>.*(Storage)[^A-Za-z0-9]?(Location|LOC).*|.*(SLOC).*|.*(Warehouse|WH).*.*</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Stock|STK)|.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Inventory|INV)|.*(Stock|STK)|.*(Inventory|INV).*</t>
+          <t>.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Stock|STK).*|.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Inventory|INV).*|.*(Stock|STK).*|.*(Inventory|INV).*.*</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>.*(Valuation|VAL)[^A-Za-z0-9]?(Class).*</t>
+          <t>.*(Valuation|VAL)[^A-Za-z0-9]?(Class).*.*</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>.*(Volume|VOL).*</t>
+          <t>.*(Volume|VOL).*.*</t>
         </is>
       </c>
     </row>

--- a/scripts/all_regex_terms.xlsx
+++ b/scripts/all_regex_terms.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>.*(Alternative|ALT)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(Alternative|ALT)[^A-Za-z0-9]?(UOM).*|.*(Alternate|ALT)[^A-Za-z0-9]?(Unit).*|.*(Alternate|ALT)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(Alternate|ALT)[^A-Za-z0-9]?(UOM).*.*</t>
+          <t>.*(Alternative|ALT)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(Alternative|ALT)[^A-Za-z0-9]?(UOM).*|.*(Alternate|ALT)[^A-Za-z0-9]?(Unit).*|.*(Alternate|ALT)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(Alternate|ALT)[^A-Za-z0-9]?(UOM).*</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>.*(Base)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(Base)[^A-Za-z0-9]?(UOM).*|.*(BUOM).*|.*(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(UOM).*.*</t>
+          <t>.*(Base)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(Base)[^A-Za-z0-9]?(UOM).*|.*(BUOM).*|.*(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(UOM).*</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Materials|MAT).*|.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Material|MAT).*|.*(BOM).*.*</t>
+          <t>.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Materials|MAT).*|.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Material|MAT).*|.*(BOM).*</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>.*(Division|DIV).*.*</t>
+          <t>.*(Division|DIV).*</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>.*(Industry)[^A-Za-z0-9]?(Sector|SECT).*|.*(Sector|SECT).*.*</t>
+          <t>.*(Industry)[^A-Za-z0-9]?(Sector|SECT).*|.*(Sector|SECT).*</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>.*(International|INTL|INT'L)[^A-Za-z0-9]?(Article)[^A-Za-z0-9]?(Number|NO|#).*|.*(International|INTL|INT'L)[^A-Za-z0-9]?(Material|MAT)[^A-Za-z0-9]?(Number|NO|#).*|.*(GTIN).*|.*(EAN).*|.*(UPC).*.*</t>
+          <t>.*(International|INTL|INT'L)[^A-Za-z0-9]?(Article)[^A-Za-z0-9]?(Number|NO|#).*|.*(International|INTL|INT'L)[^A-Za-z0-9]?(Material|MAT)[^A-Za-z0-9]?(Number|NO|#).*|.*(GTIN).*|.*(EAN).*|.*(UPC).*</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>.*(Issue)[^A-Za-z0-9]?(Storage)[^A-Za-z0-9]?(Location|LOC).*|.*(Issue)[^A-Za-z0-9]?(SLOC).*.*</t>
+          <t>.*(Issue)[^A-Za-z0-9]?(Storage)[^A-Za-z0-9]?(Location|LOC).*|.*(Issue)[^A-Za-z0-9]?(SLOC).*</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>.*(Issuing)[^A-Za-z0-9]?(Plant).*|.*(Issuing)[^A-Za-z0-9]?(Site).*|.*(Issuing)[^A-Za-z0-9]?(Store).*|.*(Issuing)[^A-Za-z0-9]?(Distribution|DIST)[^A-Za-z0-9]?(Center|CTR).*|.*(Issuing)[^A-Za-z0-9]?(DC).*.*</t>
+          <t>.*(Issuing)[^A-Za-z0-9]?(Plant).*|.*(Issuing)[^A-Za-z0-9]?(Site).*|.*(Issuing)[^A-Za-z0-9]?(Store).*|.*(Issuing)[^A-Za-z0-9]?(Distribution|DIST)[^A-Za-z0-9]?(Center|CTR).*|.*(Issuing)[^A-Za-z0-9]?(DC).*</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>.*(Material|MAT)[^A-Za-z0-9]?(Description|DESC|DESCR).*|.*(Material|MAT)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Text|TXT).*|.*(Material|MAT)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Description|DESC|DESCR).*|.*(Material|MAT)[^A-Za-z0-9]?(Description|DESC|DESCR)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Text|TXT).*.*</t>
+          <t>.*(Material|MAT)[^A-Za-z0-9]?(Description|DESC|DESCR).*|.*(Material|MAT)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Text|TXT).*|.*(Material|MAT)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Description|DESC|DESCR).*|.*(Material|MAT)[^A-Za-z0-9]?(Description|DESC|DESCR)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Text|TXT).*</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>.*(Material|MAT)[^A-Za-z0-9]?(Group|GRP).*|.*(Product)[^A-Za-z0-9]?(Hierarchy|HIER).*|.*(Merchandise|MERCH)[^A-Za-z0-9]?(Hierarchy|HIER).*|.*(Merchandise|MERCH)[^A-Za-z0-9]?(Category|CAT).*.*</t>
+          <t>.*(Material|MAT)[^A-Za-z0-9]?(Group|GRP).*|.*(Product)[^A-Za-z0-9]?(Hierarchy|HIER).*|.*(Merchandise|MERCH)[^A-Za-z0-9]?(Hierarchy|HIER).*|.*(Merchandise|MERCH)[^A-Za-z0-9]?(Category|CAT).*</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>.*(Material|MAT)[^A-Za-z0-9]?(Number|NO|#).*|.*(Material|MAT).*|.*(SKU).*|.*(Article)[^A-Za-z0-9]?(Number|NO|#).*|.*(Article).*|.*(Part)[^A-Za-z0-9]?(Number|NO|#).*|.*(Part).*|.*(Item)[^A-Za-z0-9]?(Number|NO|#).*|.*(Item).*.*</t>
+          <t>.*(Material|MAT)[^A-Za-z0-9]?(Number|NO|#).*|.*(Material|MAT).*|.*(SKU).*|.*(Article)[^A-Za-z0-9]?(Number|NO|#).*|.*(Article).*|.*(Part)[^A-Za-z0-9]?(Number|NO|#).*|.*(Part).*|.*(Item)[^A-Za-z0-9]?(Number|NO|#).*|.*(Item).*</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>.*(Material|MAT)[^A-Za-z0-9]?(Type).*.*</t>
+          <t>.*(Material|MAT)[^A-Za-z0-9]?(Type).*</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>.*(Plant).*|.*(Site).*|.*(Store).*|.*(Distribution|DIST)[^A-Za-z0-9]?(Center|CTR).*|.*(Retail|RET)[^A-Za-z0-9]?(Store).*|.*(Factory).*|.*(Manufacturing|MANU|MFG)[^A-Za-z0-9]?(Facility).*.*</t>
+          <t>.*(Plant).*|.*(Site).*|.*(Store).*|.*(Distribution|DIST)[^A-Za-z0-9]?(Center|CTR).*|.*(Retail|RET)[^A-Za-z0-9]?(Store).*|.*(Factory).*|.*(Manufacturing|MANU|MFG)[^A-Za-z0-9]?(Facility).*</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>.*(Profit)[^A-Za-z0-9]?(Center|CTR).*.*</t>
+          <t>.*(Profit)[^A-Za-z0-9]?(Center|CTR).*</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>.*(Sales)[^A-Za-z0-9]?(Organization|ORG).*.*</t>
+          <t>.*(Sales)[^A-Za-z0-9]?(Organization|ORG).*</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>.*(Standard|STD)[^A-Za-z0-9]?(Price).*|.*(Standard|STD)[^A-Za-z0-9]?(Pricing).*|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Price).*|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Pricing).*|.*(Price).*.*</t>
+          <t>.*(Standard|STD)[^A-Za-z0-9]?(Price).*|.*(Standard|STD)[^A-Za-z0-9]?(Pricing).*|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Price).*|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Pricing).*|.*(Price).*</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>.*(Storage)[^A-Za-z0-9]?(Location|LOC).*|.*(SLOC).*|.*(Warehouse|WH).*.*</t>
+          <t>.*(Storage)[^A-Za-z0-9]?(Location|LOC).*|.*(SLOC).*|.*(Warehouse|WH).*</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Stock|STK).*|.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Inventory|INV).*|.*(Stock|STK).*|.*(Inventory|INV).*.*</t>
+          <t>.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Stock|STK).*|.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Inventory|INV).*|.*(Stock|STK).*|.*(Inventory|INV).*</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>.*(Valuation|VAL)[^A-Za-z0-9]?(Class).*.*</t>
+          <t>.*(Valuation|VAL)[^A-Za-z0-9]?(Class).*</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>.*(Volume|VOL).*.*</t>
+          <t>.*(Volume|VOL).*</t>
         </is>
       </c>
     </row>

--- a/scripts/all_regex_terms.xlsx
+++ b/scripts/all_regex_terms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Classification_Description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Glossary_Term</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Keywords</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>REGEX</t>
         </is>
@@ -458,10 +468,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Alternative Unit of Measure for Stockkeeping Unit</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Alternative Unit of Measure for Stockkeeping Unit</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Alternative Unit of Measure,  Alternative UOM,  Alternate Unit,  Alternate Unit of Measure,  Alternate UOM</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>.*(Alternative|ALT)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(Alternative|ALT)[^A-Za-z0-9]?(UOM).*|.*(Alternate|ALT)[^A-Za-z0-9]?(Unit).*|.*(Alternate|ALT)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(Alternate|ALT)[^A-Za-z0-9]?(UOM).*</t>
         </is>
@@ -475,10 +495,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Base Unit of Measure</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Base Unit of Measure</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Base Unit of Measure,  Base UOM,  BUOM,  Unit of Measure,  UOM</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>.*(Base)[^A-Za-z0-9]?(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(Base)[^A-Za-z0-9]?(UOM).*|.*(BUOM).*|.*(Unit)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Measure).*|.*(UOM).*</t>
         </is>
@@ -492,10 +522,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Bill of Material</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bill of Material</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Bill of Materials,  Bill of Material,  BOM</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Materials|MAT).*|.*(Bill)[^A-Za-z0-9]?(of)[^A-Za-z0-9]?(Material|MAT).*|.*(BOM).*</t>
         </is>
@@ -514,6 +554,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Division</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>.*(Division|DIV).*</t>
         </is>
       </c>
@@ -526,10 +576,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Industry sector</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Industry sector</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Industry Sector,  Sector</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>.*(Industry)[^A-Za-z0-9]?(Sector|SECT).*|.*(Sector|SECT).*</t>
         </is>
@@ -543,10 +603,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>International Article Number (GTIN/EAN/UPC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>International Article Number (GTIN/EAN/UPC)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>International Article Number,  International Material Number,  GTIN,  EAN,  UPC</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>.*(International|INTL|INT'L)[^A-Za-z0-9]?(Article)[^A-Za-z0-9]?(Number|NO|#).*|.*(International|INTL|INT'L)[^A-Za-z0-9]?(Material|MAT)[^A-Za-z0-9]?(Number|NO|#).*|.*(GTIN).*|.*(EAN).*|.*(UPC).*</t>
         </is>
@@ -560,10 +630,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Issue Storage Location</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Issue Storage Location</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Issue Storage Location,  Issue SLOC</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>.*(Issue)[^A-Za-z0-9]?(Storage)[^A-Za-z0-9]?(Location|LOC).*|.*(Issue)[^A-Za-z0-9]?(SLOC).*</t>
         </is>
@@ -577,10 +657,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Issuing Plant</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Issuing Plant</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Issuing Plant,  Issuing Site,  Issuing Store,  Issuing Distribution Center,  Issuing DC</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>.*(Issuing)[^A-Za-z0-9]?(Plant).*|.*(Issuing)[^A-Za-z0-9]?(Site).*|.*(Issuing)[^A-Za-z0-9]?(Store).*|.*(Issuing)[^A-Za-z0-9]?(Distribution|DIST)[^A-Za-z0-9]?(Center|CTR).*|.*(Issuing)[^A-Za-z0-9]?(DC).*</t>
         </is>
@@ -594,10 +684,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Material Description (Short Text)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Material Description (Short Text)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Material Description,  Material Short Text,  Material Short Description,  Material Description Short Text</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>.*(Material|MAT)[^A-Za-z0-9]?(Description|DESC|DESCR).*|.*(Material|MAT)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Text|TXT).*|.*(Material|MAT)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Description|DESC|DESCR).*|.*(Material|MAT)[^A-Za-z0-9]?(Description|DESC|DESCR)[^A-Za-z0-9]?(Short)[^A-Za-z0-9]?(Text|TXT).*</t>
         </is>
@@ -611,10 +711,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Material Group</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Material Group</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Material Group,  Product Hierarchy,  Merchandise Hierarchy,  Merchandise Category</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>.*(Material|MAT)[^A-Za-z0-9]?(Group|GRP).*|.*(Product)[^A-Za-z0-9]?(Hierarchy|HIER).*|.*(Merchandise|MERCH)[^A-Za-z0-9]?(Hierarchy|HIER).*|.*(Merchandise|MERCH)[^A-Za-z0-9]?(Category|CAT).*</t>
         </is>
@@ -628,10 +738,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Material Number</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Material Number</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Material Number,  Material,  SKU,  Article Number,  Article,  Part Number,  Part,  Item Number,  Item</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>.*(Material|MAT)[^A-Za-z0-9]?(Number|NO|#).*|.*(Material|MAT).*|.*(SKU).*|.*(Article)[^A-Za-z0-9]?(Number|NO|#).*|.*(Article).*|.*(Part)[^A-Za-z0-9]?(Number|NO|#).*|.*(Part).*|.*(Item)[^A-Za-z0-9]?(Number|NO|#).*|.*(Item).*</t>
         </is>
@@ -650,6 +770,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Material Type</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Material Type</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>.*(Material|MAT)[^A-Za-z0-9]?(Type).*</t>
         </is>
       </c>
@@ -662,10 +792,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Plant</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Plant,  Site,  Store,  Distribution Center,  Retail Store,  Factory,  Manufacturing Facility</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>.*(Plant).*|.*(Site).*|.*(Store).*|.*(Distribution|DIST)[^A-Za-z0-9]?(Center|CTR).*|.*(Retail|RET)[^A-Za-z0-9]?(Store).*|.*(Factory).*|.*(Manufacturing|MANU|MFG)[^A-Za-z0-9]?(Facility).*</t>
         </is>
@@ -679,10 +819,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Profit center</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Profit center</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Profit Center</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>.*(Profit)[^A-Za-z0-9]?(Center|CTR).*</t>
         </is>
@@ -701,6 +851,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Sales Organization</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sales Organization</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>.*(Sales)[^A-Za-z0-9]?(Organization|ORG).*</t>
         </is>
       </c>
@@ -713,10 +873,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Standard Price</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Standard Price</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Standard Price,  Standard Pricing,  Material Standard Price,  Material Standard Pricing,  Price</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>.*(Standard|STD)[^A-Za-z0-9]?(Price).*|.*(Standard|STD)[^A-Za-z0-9]?(Pricing).*|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Price).*|.*(Material|MAT)[^A-Za-z0-9]?(Standard|STD)[^A-Za-z0-9]?(Pricing).*|.*(Price).*</t>
         </is>
@@ -730,10 +900,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Storage Location</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Storage Location</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Storage Location,  SLOC,  Warehouse</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>.*(Storage)[^A-Za-z0-9]?(Location|LOC).*|.*(SLOC).*|.*(Warehouse|WH).*</t>
         </is>
@@ -747,10 +927,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Total Stock</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Total Stock</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Total Stock,  Total Inventory,  Stock,  Inventory</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Stock|STK).*|.*(Total|TOT|TOTL)[^A-Za-z0-9]?(Inventory|INV).*|.*(Stock|STK).*|.*(Inventory|INV).*</t>
         </is>
@@ -769,6 +959,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Valuation Class</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Valuation Class</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>.*(Valuation|VAL)[^A-Za-z0-9]?(Class).*</t>
         </is>
       </c>
@@ -785,6 +985,16 @@
         </is>
       </c>
       <c r="C21" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>.*(Volume|VOL).*</t>
         </is>
